--- a/data/combined data/combined data - 1 cleaning/cleaning step 4 - career/4.2 career_divided_unparsed_uncoded/career_funeral_unparsed_uncoded.xlsx
+++ b/data/combined data/combined data - 1 cleaning/cleaning step 4 - career/4.2 career_divided_unparsed_uncoded/career_funeral_unparsed_uncoded.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B85"/>
+  <dimension ref="A1:C93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,6 +441,11 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>CareerDateString_2022</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>CareerStringID</t>
         </is>
       </c>
@@ -453,6 +458,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>2011.12</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
@@ -463,9 +473,10 @@
           <t>1994. 7 김일성 국가장의위원회 위원</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>1582</t>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1588</t>
         </is>
       </c>
     </row>
@@ -475,9 +486,10 @@
           <t>1994. 7 김일성 국가장의위원회 위원</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>1585</t>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1591</t>
         </is>
       </c>
     </row>
@@ -487,9 +499,10 @@
           <t>1995. 2  오진우 국가장의위원회 위원</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>1610</t>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1616</t>
         </is>
       </c>
     </row>
@@ -499,9 +512,10 @@
           <t>1995. 2 오진우 국가장의위원회 위원</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>1611</t>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1617</t>
         </is>
       </c>
     </row>
@@ -511,9 +525,10 @@
           <t>1995. 2 오진우 국가장의위원회 위원</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>1617</t>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1623</t>
         </is>
       </c>
     </row>
@@ -523,9 +538,10 @@
           <t>1995. 2 오진우 국가장의위원회 위원장</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>1618</t>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1624</t>
         </is>
       </c>
     </row>
@@ -535,9 +551,10 @@
           <t>1995. 2 최광 국가장의위원회 위원</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>1620</t>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1626</t>
         </is>
       </c>
     </row>
@@ -547,9 +564,10 @@
           <t>1997. 2 최 광 국가장의위원회 위원</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>1733</t>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1739</t>
         </is>
       </c>
     </row>
@@ -559,9 +577,10 @@
           <t>1997. 2 최광 국가장의위원회 위원</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>1734</t>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1740</t>
         </is>
       </c>
     </row>
@@ -571,9 +590,10 @@
           <t>1998.12 전문섭 국가장의위원회 위원</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>1927</t>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1933</t>
         </is>
       </c>
     </row>
@@ -583,9 +603,10 @@
           <t>1999. 9 리종옥 국가장의위원회 위원</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>1983</t>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1989</t>
         </is>
       </c>
     </row>
@@ -595,9 +616,10 @@
           <t>1999. 리종옥 국가장의위원회 위원</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>2003</t>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2009</t>
         </is>
       </c>
     </row>
@@ -607,9 +629,10 @@
           <t>2002. 6 최홍희 국가장의위원회 위원</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>2188</t>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2195</t>
         </is>
       </c>
     </row>
@@ -619,9 +642,10 @@
           <t>2005. 10 연형묵 국가장의위원회 위원</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>2464</t>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2471</t>
         </is>
       </c>
     </row>
@@ -631,9 +655,10 @@
           <t>2005.10 연형묵 국가장의위원회 위원</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>2562</t>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2569</t>
         </is>
       </c>
     </row>
@@ -643,9 +668,10 @@
           <t>2005.10 연형묵 국가장의위원회 위원장</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>2563</t>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2570</t>
         </is>
       </c>
     </row>
@@ -655,9 +681,10 @@
           <t>2005.10 연형묵 국가장의위원회 위원</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>2567</t>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2574</t>
         </is>
       </c>
     </row>
@@ -667,9 +694,10 @@
           <t>2007. 6 리인모 국가장의위원회 위원</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>2714</t>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2721</t>
         </is>
       </c>
     </row>
@@ -679,9 +707,10 @@
           <t>2007. 6 리인모 국가장의위원회 위원장</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>2715</t>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2722</t>
         </is>
       </c>
     </row>
@@ -691,9 +720,10 @@
           <t>2007. 6 이인모 국가장의위원회 위원</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>2717</t>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2724</t>
         </is>
       </c>
     </row>
@@ -703,9 +733,10 @@
           <t>2008.10 박성철 국가장의위원회 위원</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>2794</t>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2801</t>
         </is>
       </c>
     </row>
@@ -715,9 +746,10 @@
           <t>2008.10 박성철 국가장의위원회 위원</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>2798</t>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2805</t>
         </is>
       </c>
     </row>
@@ -727,9 +759,10 @@
           <t>2008.10 박성철 국가장의위원회 위원장</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>2799</t>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2806</t>
         </is>
       </c>
     </row>
@@ -739,9 +772,10 @@
           <t>2009. 4 홍성남 국가장의위원회 위원</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>2859</t>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2866</t>
         </is>
       </c>
     </row>
@@ -751,9 +785,10 @@
           <t>2009. 4 홍성남 국가장의위원회 위원</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>2934</t>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2941</t>
         </is>
       </c>
     </row>
@@ -763,9 +798,10 @@
           <t>2009. 4 홍성남 국가장의위원회 위원장</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>2935</t>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2942</t>
         </is>
       </c>
     </row>
@@ -775,9 +811,10 @@
           <t>2010. 4 김중린 국가장의위원회 위원</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>3023</t>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>3030</t>
         </is>
       </c>
     </row>
@@ -787,9 +824,10 @@
           <t>2010. 4 김중린 국가장의위원회 위원장</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>3024</t>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>3031</t>
         </is>
       </c>
     </row>
@@ -799,9 +837,10 @@
           <t>2010.11   조명록 국가장의위원회 위원</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>3159</t>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>3166</t>
         </is>
       </c>
     </row>
@@ -811,9 +850,10 @@
           <t>2010.11 조명록 국가장의위원회 위원</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>3163</t>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>3170</t>
         </is>
       </c>
     </row>
@@ -823,9 +863,10 @@
           <t>2010.11 조명록 국가장의위원회 위원2011.10 노력영웅 칭호</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>3164</t>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>3171</t>
         </is>
       </c>
     </row>
@@ -835,9 +876,10 @@
           <t>2010.11 조명록 국가장의위원회 위원장</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>3165</t>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>3172</t>
         </is>
       </c>
     </row>
@@ -847,9 +889,10 @@
           <t>2011. 1 박정순 국가장의위원회 위원</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>3175</t>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>3182</t>
         </is>
       </c>
     </row>
@@ -859,9 +902,10 @@
           <t>2011. 2 박정순 국가장의위원회 위원</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>3180</t>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>3187</t>
         </is>
       </c>
     </row>
@@ -871,9 +915,10 @@
           <t>2011.12   김정일 국가장의위원회 위원</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>3238</t>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>3245</t>
         </is>
       </c>
     </row>
@@ -883,9 +928,10 @@
           <t>2011.12 김정일 국가장의위원회 위원</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>3239</t>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>3246</t>
         </is>
       </c>
     </row>
@@ -895,9 +941,10 @@
           <t>2011.12 김정일 국가장의위원회 위원장</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>3240</t>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>3247</t>
         </is>
       </c>
     </row>
@@ -909,547 +956,913 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>3477</t>
+          <t>2016.12</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>3508</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>故 강석주 국가장의위원회 위원장</t>
+          <t>故 강석주 국가장의위원회 위원</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>3478</t>
+          <t>2016.05</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>3509</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>故 김국태 국가장의위원회 위원</t>
+          <t>故 강석주 국가장의위원회 위원장</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>3479</t>
+          <t>2016.05</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>3510</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>故 김양건 국가장의위원회 위원</t>
+          <t>故 김국태 국가장의위원회 위원</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>3480</t>
+          <t>2013.12</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>3511</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>故 김영춘 국가장의위원회 위원</t>
+          <t>故 김양건 국가장의위원회 위원</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>3481</t>
+          <t>2015.11</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>3512</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>故 김일성 국가장의위원회 위원</t>
+          <t>故 김양건 국가장의위원회 위원</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>3482</t>
+          <t>2015.12</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>3513</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>故 김정일 국가장의위원회 위원</t>
+          <t>故 김영춘 국가장의위원회 위원</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>3484</t>
+          <t>2018.08</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>3514</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>故 김정일 국가장의위원회 위원(12.19)</t>
+          <t>故 김일성 국가장의위원회 위원</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>3485</t>
+          <t>1994.07</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>3515</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>故 김정일 국가장의위원회 위원장</t>
+          <t>故 김정일 국가장의위원회 위원</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>3486</t>
+          <t>2011.12</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>3517</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>故 김중린 국가장의위원회 위원</t>
+          <t>故 김정일 국가장의위원회 위원(12.19)</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>3487</t>
+          <t>2011.12</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>3518</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>故 김철만 국가장의위원회 위원</t>
+          <t>故 김정일 국가장의위원회 위원장</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>3488</t>
+          <t>2011.12</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>3519</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>故 류미영 국가장의위원회 위원</t>
+          <t>故 김중린 국가장의위원회 위원</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>3489</t>
+          <t>2010.04</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>3520</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>故 리을설 국가장의위원회 위원</t>
+          <t>故 김철만 국가장의위원회 위원</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>3492</t>
+          <t>2018.12</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>3521</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>故 리을설 국가장의위원회 위원장</t>
+          <t>故 류미영 국가장의위원회 위원</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>3493</t>
+          <t>2016.11</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>3522</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>故 리종옥 국가장의위원회 위원</t>
+          <t>故 리을설 국가장의위원회 위원</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>3494</t>
+          <t>2016.05</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>3525</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>故 박성철 국가장의위원회 위원</t>
+          <t>故 리을설 국가장의위원회 위원</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>3495</t>
+          <t>2015.11</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>3526</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>故 박성철 국가장의위원회 위원장</t>
+          <t>故 리을설 국가장의위원회 위원장</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>3496</t>
+          <t>2015.11</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>3527</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>故 박정순 국가장의위원회 위원</t>
+          <t>故 리종옥 국가장의위원회 위원</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>3497</t>
+          <t>1999.09</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>3528</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>故 연형묵 국가장의위원회 위원</t>
+          <t>故 박성철 국가장의위원회 위원</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>3498</t>
+          <t>2008.10</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>3529</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>故 연형묵 국가장의위원회 위원장</t>
+          <t>故 박성철 국가장의위원회 위원장</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>3499</t>
+          <t>2008.10</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>3530</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>故 오진우 국가장의위원회 위원</t>
+          <t>故 박정순 국가장의위원회 위원</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>3500</t>
+          <t>2011.01</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>3531</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>故 이인모 국가장의위원회 위원</t>
+          <t>故 연형묵 국가장의위원회 위원</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>3501</t>
+          <t>2005.10</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>3532</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>故 이인모 국가장의위원회 위원장</t>
+          <t>故 연형묵 국가장의위원회 위원장</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>3502</t>
+          <t>2005.10</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>3533</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>故 전문섭 국가장의위원회 위원</t>
+          <t>故 오진우 국가장의위원회 위원</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>3503</t>
+          <t>1995.05</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>3534</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>故 전병호 국가장의위원회 위원</t>
+          <t>故 오진우 국가장의위원회 위원</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>3504</t>
+          <t>1995.02</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>3535</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>故 전병호의 국가장의위원회 위원</t>
+          <t>故 이인모 국가장의위원회 위원</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>3505</t>
+          <t>2007.06</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>3536</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>故 조명록 국가장의위원회 위원</t>
+          <t>故 이인모 국가장의위원회 위원장</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>3506</t>
+          <t>2007.06</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>3537</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>故 조명록 국가장의위원회 위원장</t>
+          <t>故 전문섭 국가장의위원회 위원</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>3507</t>
+          <t>1998.12</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>3538</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>故 최광 국가장의위원회 위원</t>
+          <t>故 전병호 국가장의위원회 위원</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>3509</t>
+          <t>2014.07</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>3539</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>故 홍성남 국가장의위원회 위원</t>
+          <t>故 전병호 국가장의위원회 위원</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>3510</t>
+          <t>2014.03</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>3540</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>故 홍성남 국가장의위원회 위원장</t>
+          <t>故 전병호 국가장의위원회 위원</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>3511</t>
+          <t>2014.06</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>3541</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>故 황순희 국가장의위원회 위원</t>
+          <t>故 전병호의 국가장의위원회 위원</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>3512</t>
+          <t>2014.07</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>3542</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>강석주 국가장의위원회 위원</t>
+          <t>故 조명록 국가장의위원회 위원</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>3517</t>
+          <t>2010.11</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>3543</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>고 리을설 국가장의위원회 위원</t>
+          <t>故 조명록 국가장의위원회 위원</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>3570</t>
+          <t>2010.12</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>3544</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>김일성 국가장의위원회 위원</t>
+          <t>故 조명록 국가장의위원회 위원</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>3982</t>
+          <t>2010.10</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>3545</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>김정일 국가장의위원회 위원</t>
+          <t>故 조명록 국가장의위원회 위원장</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>4073</t>
+          <t>2010.11</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>3546</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>김중린 국가장의위원회 위원</t>
+          <t>故 최광 국가장의위원회 위원</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>4079</t>
+          <t>1997.02</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>3548</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>박성철 국가장의위원회 위원</t>
+          <t>故 홍성남 국가장의위원회 위원</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>4865</t>
+          <t>2009.04</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>3549</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>연형묵 국가장의위원회 위원</t>
+          <t>故 홍성남 국가장의위원회 위원장</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>5398</t>
+          <t>2009.04</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>3550</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>오진우 국가장의위원회 위원</t>
+          <t>故 황순희 국가장의위원회 위원</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>5409</t>
+          <t>2020.01</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>3551</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>이인모 국가장의위원회 위원</t>
+          <t>강석주 국가장의위원회 위원</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>5537</t>
+          <t>2016.05</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>3556</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>전병호 국가장의위원회 위원</t>
+          <t>고 리을설 국가장의위원회 위원</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>5680</t>
+          <t>연도미상</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>3619</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>조명록 국가장의위원회 위원</t>
+          <t>김일성 국가장의위원회 위원</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>5910</t>
+          <t>1994.07</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>4224</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>최 광 국가장의위원회 위원</t>
+          <t>김정일 국가장의위원회 위원</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>6470</t>
+          <t>2011.12</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>4340</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>최홍희 국가장의위원회 위원</t>
+          <t>김중린 국가장의위원회 위원</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>6686</t>
+          <t>2010.04</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>4347</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
+          <t>박성철 국가장의위원회 위원</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>2008.10</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>5432</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>연형묵 국가장의위원회 위원</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>2005.10</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>6034</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>오진우 국가장의위원회 위원</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>1995.02</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>6047</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>이인모 국가장의위원회 위원</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>2007.06</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>6208</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>전병호 국가장의위원회 위원</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>2014.07</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>6415</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>조명록 국가장의위원회 위원</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>2010.11</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>6711</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>최 광 국가장의위원회 위원</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>1997.02</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>7380</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>최홍희 국가장의위원회 위원</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>2002.06</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>7686</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
           <t>홍성남 국가장의위원회 위원</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>6957</t>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>2009.04</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>7971</t>
         </is>
       </c>
     </row>
